--- a/datasets/backtest/backtest.xlsx
+++ b/datasets/backtest/backtest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>BBSE3</t>
   </si>
@@ -25,37 +25,49 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2020-03-12</t>
-  </si>
-  <si>
-    <t>2020-03-11</t>
-  </si>
-  <si>
-    <t>2020-03-10</t>
-  </si>
-  <si>
-    <t>2020-03-09</t>
-  </si>
-  <si>
-    <t>2020-03-06</t>
-  </si>
-  <si>
-    <t>2020-03-05</t>
-  </si>
-  <si>
-    <t>2020-03-04</t>
-  </si>
-  <si>
-    <t>2020-03-03</t>
-  </si>
-  <si>
-    <t>2020-03-02</t>
-  </si>
-  <si>
-    <t>2020-02-28</t>
-  </si>
-  <si>
-    <t>2020-02-27</t>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2020-05-12</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
+  </si>
+  <si>
+    <t>2020-05-14</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-05-19</t>
+  </si>
+  <si>
+    <t>2020-05-20</t>
+  </si>
+  <si>
+    <t>2020-05-21</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>2020-05-27</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
   </si>
 </sst>
 </file>
@@ -413,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,10 +447,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>25.20999908447266</v>
+        <v>23.27000045776367</v>
       </c>
       <c r="C2">
-        <v>9.249074935913086</v>
+        <v>8.470834732055664</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -446,10 +458,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>27.78000068664551</v>
+        <v>23.54999923706055</v>
       </c>
       <c r="C3">
-        <v>10.3765230178833</v>
+        <v>8.400993347167969</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -457,10 +469,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>22.85000038146973</v>
       </c>
       <c r="C4">
-        <v>11.0350341796875</v>
+        <v>8.161535263061522</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -468,10 +480,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>28.38999938964844</v>
+        <v>23.11000061035156</v>
       </c>
       <c r="C5">
-        <v>10.80555248260498</v>
+        <v>8.201444625854492</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -479,10 +491,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>30.47999954223633</v>
+        <v>23.70999908447266</v>
       </c>
       <c r="C6">
-        <v>11.53390502929688</v>
+        <v>8.500767707824707</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -490,10 +502,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>30.44000053405761</v>
+        <v>22.59000015258789</v>
       </c>
       <c r="C7">
-        <v>11.80329513549805</v>
+        <v>8.121625900268555</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -501,10 +513,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>31.04000091552734</v>
+        <v>23.5</v>
       </c>
       <c r="C8">
-        <v>12.17246055603027</v>
+        <v>8.520722389221191</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -512,10 +524,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>30.6299991607666</v>
+        <v>23.47999954223633</v>
       </c>
       <c r="C9">
-        <v>12.10261821746826</v>
+        <v>8.221399307250978</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -523,10 +535,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>31.60000038146973</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="C10">
-        <v>12.28221225738526</v>
+        <v>8.231376647949219</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -534,10 +546,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>31.85000038146973</v>
+        <v>24.14999961853027</v>
       </c>
       <c r="C11">
-        <v>11.96293449401855</v>
+        <v>8.670383453369139</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -545,10 +557,54 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>31.46999931335449</v>
+        <v>23.51000022888184</v>
       </c>
       <c r="C12">
-        <v>11.82348346710205</v>
+        <v>8.839999198913574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="C13">
+        <v>9.219141960144043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>25.18000030517578</v>
+      </c>
+      <c r="C14">
+        <v>8.899864196777344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>25.29999923706055</v>
+      </c>
+      <c r="C15">
+        <v>9.089435577392578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>25.61000061035156</v>
+      </c>
+      <c r="C16">
+        <v>8.979683876037598</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/backtest/backtest.xlsx
+++ b/datasets/backtest/backtest.xlsx
@@ -14,60 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>BBSE3</t>
-  </si>
-  <si>
-    <t>ITSA4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>BRKM5</t>
+  </si>
+  <si>
+    <t>LAME4</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2020-05-08</t>
-  </si>
-  <si>
-    <t>2020-05-11</t>
-  </si>
-  <si>
-    <t>2020-05-12</t>
-  </si>
-  <si>
-    <t>2020-05-13</t>
-  </si>
-  <si>
-    <t>2020-05-14</t>
-  </si>
-  <si>
-    <t>2020-05-15</t>
-  </si>
-  <si>
-    <t>2020-05-18</t>
-  </si>
-  <si>
-    <t>2020-05-19</t>
-  </si>
-  <si>
-    <t>2020-05-20</t>
-  </si>
-  <si>
-    <t>2020-05-21</t>
-  </si>
-  <si>
-    <t>2020-05-22</t>
-  </si>
-  <si>
-    <t>2020-05-25</t>
-  </si>
-  <si>
-    <t>2020-05-26</t>
-  </si>
-  <si>
-    <t>2020-05-27</t>
-  </si>
-  <si>
-    <t>2020-05-28</t>
+    <t>2020-03-20</t>
+  </si>
+  <si>
+    <t>2020-03-23</t>
+  </si>
+  <si>
+    <t>2020-03-24</t>
+  </si>
+  <si>
+    <t>2020-03-25</t>
+  </si>
+  <si>
+    <t>2020-03-26</t>
   </si>
 </sst>
 </file>
@@ -425,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,10 +417,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>23.27000045776367</v>
+        <v>11.80000019073487</v>
       </c>
       <c r="C2">
-        <v>8.470834732055664</v>
+        <v>17.61000061035156</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -458,10 +428,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>23.54999923706055</v>
+        <v>10.06999969482422</v>
       </c>
       <c r="C3">
-        <v>8.400993347167969</v>
+        <v>17.48999977111816</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -469,10 +439,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>22.85000038146973</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="C4">
-        <v>8.161535263061522</v>
+        <v>19.29000091552734</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -480,10 +450,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>23.11000061035156</v>
+        <v>15.02000045776367</v>
       </c>
       <c r="C5">
-        <v>8.201444625854492</v>
+        <v>20.03000068664551</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -491,120 +461,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>23.70999908447266</v>
+        <v>19.22999954223633</v>
       </c>
       <c r="C6">
-        <v>8.500767707824707</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>22.59000015258789</v>
-      </c>
-      <c r="C7">
-        <v>8.121625900268555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>23.5</v>
-      </c>
-      <c r="C8">
-        <v>8.520722389221191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>23.47999954223633</v>
-      </c>
-      <c r="C9">
-        <v>8.221399307250978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>23.53000068664551</v>
-      </c>
-      <c r="C10">
-        <v>8.231376647949219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>24.14999961853027</v>
-      </c>
-      <c r="C11">
-        <v>8.670383453369139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>23.51000022888184</v>
-      </c>
-      <c r="C12">
-        <v>8.839999198913574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>24.64999961853027</v>
-      </c>
-      <c r="C13">
-        <v>9.219141960144043</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>25.18000030517578</v>
-      </c>
-      <c r="C14">
-        <v>8.899864196777344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>25.29999923706055</v>
-      </c>
-      <c r="C15">
-        <v>9.089435577392578</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>25.61000061035156</v>
-      </c>
-      <c r="C16">
-        <v>8.979683876037598</v>
+        <v>20.85000038146973</v>
       </c>
     </row>
   </sheetData>
